--- a/protocols/Group_Ass.xlsx
+++ b/protocols/Group_Ass.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>Members</t>
   </si>
@@ -205,6 +205,9 @@
     <t>Create dimensional views of the model</t>
   </si>
   <si>
+    <t>TO-DO</t>
+  </si>
+  <si>
     <t>WK, LB</t>
   </si>
   <si>
@@ -275,6 +278,12 @@
   </si>
   <si>
     <t>Different affordances and signifiers for the vehicle</t>
+  </si>
+  <si>
+    <t>Conceptual Model</t>
+  </si>
+  <si>
+    <t>Definition of the conceptual model of the vehicle</t>
   </si>
 </sst>
 </file>
@@ -729,13 +738,13 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -916,7 +925,7 @@
               <c:numCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21.000000</c:v>
+                  <c:v>22.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.000000</c:v>
@@ -1286,13 +1295,13 @@
               <c:numCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16.000000</c:v>
+                  <c:v>18.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2613,7 +2622,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:L43"/>
+  <dimension ref="B3:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2658,8 +2667,8 @@
         <v>5</v>
       </c>
       <c r="D4" s="8">
-        <f>COUNTIF(K19:K43,"*LB*")</f>
-        <v>21</v>
+        <f>COUNTIF(K19:K44,"*LB*")</f>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1">
@@ -2670,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="8">
-        <f>COUNTIF(K19:K43,"*GK*")</f>
+        <f>COUNTIF(K19:K44,"*GK*")</f>
         <v>5</v>
       </c>
     </row>
@@ -2682,7 +2691,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="8">
-        <f>COUNTIF(K19:K43,"*WK*")</f>
+        <f>COUNTIF(K19:K44,"*WK*")</f>
         <v>9</v>
       </c>
     </row>
@@ -2694,7 +2703,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8">
-        <f>COUNTIF(K19:K43,"*KT*")</f>
+        <f>COUNTIF(K19:K44,"*KT*")</f>
         <v>7</v>
       </c>
     </row>
@@ -2706,7 +2715,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="11">
-        <f>COUNTIF(K19:K43,"*VJ*")</f>
+        <f>COUNTIF(K19:K44,"*VJ*")</f>
         <v>6</v>
       </c>
     </row>
@@ -2729,8 +2738,8 @@
         <v>17</v>
       </c>
       <c r="F12" s="16">
-        <f>COUNTIF(J19:J43,"=DONE")</f>
-        <v>16</v>
+        <f>COUNTIF(J19:J44,"=DONE")</f>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
@@ -2738,8 +2747,8 @@
         <v>18</v>
       </c>
       <c r="F13" s="18">
-        <f>COUNTIF(J19:J43,"=WIP")</f>
-        <v>9</v>
+        <f>COUNTIF(J19:J44,"=WIP")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1">
@@ -2747,8 +2756,8 @@
         <v>19</v>
       </c>
       <c r="F14" s="19">
-        <f>COUNTIF(J19:J43,"=TO-DO")</f>
-        <v>0</v>
+        <f>COUNTIF(J19:J44,"=TO-DO")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="15" ht="22.6" customHeight="1">
@@ -2756,8 +2765,8 @@
         <v>16</v>
       </c>
       <c r="F15" s="21">
-        <f>COUNTIF(J19:J43,"*")</f>
-        <v>25</v>
+        <f>COUNTIF(J19:J44,"*")</f>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
@@ -3041,41 +3050,35 @@
       </c>
       <c r="I33" s="28"/>
       <c r="J33" t="s" s="27">
-        <f>IF(L33="WIP","WIP",IF(K33=L33,"TO-DO","DONE"))</f>
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s" s="27">
-        <v>64</v>
-      </c>
-      <c r="L33" t="s" s="34">
-        <v>26</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" ht="36.5" customHeight="1">
       <c r="G34" t="s" s="26">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s" s="30">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I34" s="31"/>
       <c r="J34" t="s" s="30">
-        <f>IF(L34="WIP","WIP",IF(K34=L34,"TO-DO","DONE"))</f>
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s" s="30">
-        <v>67</v>
-      </c>
-      <c r="L34" t="s" s="35">
-        <v>26</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="L34" s="36"/>
     </row>
     <row r="35" ht="22.5" customHeight="1">
       <c r="G35" t="s" s="26">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H35" t="s" s="27">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I35" s="28"/>
       <c r="J35" t="s" s="27">
@@ -3089,10 +3092,10 @@
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="G36" t="s" s="26">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s" s="30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I36" s="31"/>
       <c r="J36" t="s" s="30">
@@ -3106,10 +3109,10 @@
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="G37" t="s" s="26">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s" s="27">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I37" s="28"/>
       <c r="J37" t="s" s="27">
@@ -3117,7 +3120,7 @@
         <v>26</v>
       </c>
       <c r="K37" t="s" s="27">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L37" t="s" s="34">
         <v>26</v>
@@ -3125,7 +3128,7 @@
     </row>
     <row r="38" ht="36.5" customHeight="1">
       <c r="G38" t="s" s="26">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H38" s="37"/>
       <c r="I38" s="31"/>
@@ -3134,16 +3137,16 @@
         <v>29</v>
       </c>
       <c r="K38" t="s" s="30">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L38" s="36"/>
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="G39" t="s" s="26">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="27">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" t="s" s="27">
@@ -3157,10 +3160,10 @@
     </row>
     <row r="40" ht="22.5" customHeight="1">
       <c r="G40" t="s" s="26">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="30">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I40" s="31"/>
       <c r="J40" t="s" s="30">
@@ -3176,10 +3179,10 @@
     </row>
     <row r="41" ht="36.5" customHeight="1">
       <c r="G41" t="s" s="26">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="27">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I41" s="28"/>
       <c r="J41" t="s" s="27">
@@ -3187,7 +3190,7 @@
         <v>26</v>
       </c>
       <c r="K41" t="s" s="27">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L41" t="s" s="34">
         <v>26</v>
@@ -3195,10 +3198,10 @@
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="G42" t="s" s="26">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="30">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I42" s="31"/>
       <c r="J42" t="s" s="30">
@@ -3206,30 +3209,45 @@
         <v>26</v>
       </c>
       <c r="K42" t="s" s="30">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L42" t="s" s="35">
         <v>26</v>
       </c>
     </row>
-    <row r="43" ht="22.6" customHeight="1">
-      <c r="G43" t="s" s="38">
-        <v>86</v>
-      </c>
-      <c r="H43" t="s" s="39">
+    <row r="43" ht="22.5" customHeight="1">
+      <c r="G43" t="s" s="26">
         <v>87</v>
       </c>
-      <c r="I43" s="40"/>
-      <c r="J43" t="s" s="39">
+      <c r="H43" t="s" s="27">
+        <v>88</v>
+      </c>
+      <c r="I43" s="28"/>
+      <c r="J43" t="s" s="27">
         <f>IF(L43="WIP","WIP",IF(K43=L43,"TO-DO","DONE"))</f>
-        <v>26</v>
-      </c>
-      <c r="K43" t="s" s="39">
+        <v>29</v>
+      </c>
+      <c r="K43" t="s" s="27">
         <v>59</v>
       </c>
-      <c r="L43" t="s" s="41">
-        <v>26</v>
-      </c>
+      <c r="L43" s="29"/>
+    </row>
+    <row r="44" ht="22.6" customHeight="1">
+      <c r="G44" t="s" s="38">
+        <v>89</v>
+      </c>
+      <c r="H44" t="s" s="39">
+        <v>90</v>
+      </c>
+      <c r="I44" s="40"/>
+      <c r="J44" t="s" s="39">
+        <f>IF(L44="WIP","WIP",IF(K44=L44,"TO-DO","DONE"))</f>
+        <v>29</v>
+      </c>
+      <c r="K44" t="s" s="39">
+        <v>5</v>
+      </c>
+      <c r="L44" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3237,7 +3255,7 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G17:L17"/>
   </mergeCells>
-  <conditionalFormatting sqref="J18:J43">
+  <conditionalFormatting sqref="J18:J44">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
       <formula>"DONE"</formula>
     </cfRule>

--- a/protocols/Group_Ass.xlsx
+++ b/protocols/Group_Ass.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>Members</t>
   </si>
@@ -205,85 +205,91 @@
     <t>Create dimensional views of the model</t>
   </si>
   <si>
+    <t>Consider diffent aspects of the model</t>
+  </si>
+  <si>
+    <t>Different aspects like ergonomics and so on</t>
+  </si>
+  <si>
+    <t>WK,LB</t>
+  </si>
+  <si>
+    <t>Define disciplines</t>
+  </si>
+  <si>
+    <t>Define disciplines for all subsystems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refine the subsystem </t>
+  </si>
+  <si>
+    <t>Refinement of the subsystem diagram</t>
+  </si>
+  <si>
+    <t>Appropriate techniques</t>
+  </si>
+  <si>
+    <t>Uml and Algorithms for different parts</t>
+  </si>
+  <si>
+    <t>LB, GK,VJ</t>
+  </si>
+  <si>
+    <t>Define a functional Model</t>
+  </si>
+  <si>
+    <t>LB, GK, KT, WK</t>
+  </si>
+  <si>
+    <t>How to follow light</t>
+  </si>
+  <si>
+    <t>Define how the “Seeking ” subsystem works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define Seeking subsistem </t>
+  </si>
+  <si>
+    <t>Uml, draft of algorithm for seeking subsystems</t>
+  </si>
+  <si>
+    <t>How does the robot maintain orientation</t>
+  </si>
+  <si>
+    <t>Decide how the model define orientation and map planning</t>
+  </si>
+  <si>
+    <t>GK, LB</t>
+  </si>
+  <si>
+    <t>Map planning, path planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map planning and path planning ump and algorithm </t>
+  </si>
+  <si>
+    <t>Define affordances and signifier</t>
+  </si>
+  <si>
+    <t>Different affordances and signifiers for the vehicle</t>
+  </si>
+  <si>
+    <t>Conceptual Model</t>
+  </si>
+  <si>
+    <t>Definition of the conceptual model of the vehicle</t>
+  </si>
+  <si>
+    <t>Object Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Detection subsystem, UML </t>
+  </si>
+  <si>
+    <t>Object Detection subsystem, First Library</t>
+  </si>
+  <si>
     <t>TO-DO</t>
-  </si>
-  <si>
-    <t>WK, LB</t>
-  </si>
-  <si>
-    <t>Consider diffent aspects of the model</t>
-  </si>
-  <si>
-    <t>Different aspects like ergonomics and so on</t>
-  </si>
-  <si>
-    <t>WK,LB</t>
-  </si>
-  <si>
-    <t>Define disciplines</t>
-  </si>
-  <si>
-    <t>Define disciplines for all subsystems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refine the subsystem </t>
-  </si>
-  <si>
-    <t>Refinement of the subsystem diagram</t>
-  </si>
-  <si>
-    <t>Appropriate techniques</t>
-  </si>
-  <si>
-    <t>Uml and Algorithms for different parts</t>
-  </si>
-  <si>
-    <t>LB, GK,VJ</t>
-  </si>
-  <si>
-    <t>Define a functional Model</t>
-  </si>
-  <si>
-    <t>LB, GK, KT, WK</t>
-  </si>
-  <si>
-    <t>How to follow light</t>
-  </si>
-  <si>
-    <t>Define how the “Seeking ” subsystem works</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Define Seeking subsistem </t>
-  </si>
-  <si>
-    <t>Uml, draft of algorithm for seeking subsystems</t>
-  </si>
-  <si>
-    <t>How does the robot maintain orientation</t>
-  </si>
-  <si>
-    <t>Decide how the model define orientation and map planning</t>
-  </si>
-  <si>
-    <t>GK, LB</t>
-  </si>
-  <si>
-    <t>Map planning, path planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map planning and path planning ump and algorithm </t>
-  </si>
-  <si>
-    <t>Define affordances and signifier</t>
-  </si>
-  <si>
-    <t>Different affordances and signifiers for the vehicle</t>
-  </si>
-  <si>
-    <t>Conceptual Model</t>
-  </si>
-  <si>
-    <t>Definition of the conceptual model of the vehicle</t>
   </si>
 </sst>
 </file>
@@ -620,7 +626,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -723,28 +729,31 @@
     <xf numFmtId="59" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -925,10 +934,10 @@
               <c:numCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22.000000</c:v>
+                  <c:v>23.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.000000</c:v>
@@ -1295,13 +1304,13 @@
               <c:numCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18.000000</c:v>
+                  <c:v>26.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.000000</c:v>
+                  <c:v>1.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2622,7 +2631,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:L44"/>
+  <dimension ref="B3:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2667,8 +2676,8 @@
         <v>5</v>
       </c>
       <c r="D4" s="8">
-        <f>COUNTIF(K19:K44,"*LB*")</f>
-        <v>22</v>
+        <f>COUNTIF(K19:K47,"*LB*")</f>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1">
@@ -2679,8 +2688,8 @@
         <v>7</v>
       </c>
       <c r="D5" s="8">
-        <f>COUNTIF(K19:K44,"*GK*")</f>
-        <v>5</v>
+        <f>COUNTIF(K19:K47,"*GK*")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="1">
@@ -2691,7 +2700,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="8">
-        <f>COUNTIF(K19:K44,"*WK*")</f>
+        <f>COUNTIF(K19:K47,"*WK*")</f>
         <v>9</v>
       </c>
     </row>
@@ -2703,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8">
-        <f>COUNTIF(K19:K44,"*KT*")</f>
+        <f>COUNTIF(K19:K47,"*KT*")</f>
         <v>7</v>
       </c>
     </row>
@@ -2715,7 +2724,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="11">
-        <f>COUNTIF(K19:K44,"*VJ*")</f>
+        <f>COUNTIF(K19:K47,"*VJ*")</f>
         <v>6</v>
       </c>
     </row>
@@ -2738,8 +2747,8 @@
         <v>17</v>
       </c>
       <c r="F12" s="16">
-        <f>COUNTIF(J19:J44,"=DONE")</f>
-        <v>18</v>
+        <f>COUNTIF(J19:J47,"=DONE")</f>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
@@ -2747,8 +2756,8 @@
         <v>18</v>
       </c>
       <c r="F13" s="18">
-        <f>COUNTIF(J19:J44,"=WIP")</f>
-        <v>6</v>
+        <f>COUNTIF(J19:J47,"=WIP")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1">
@@ -2756,8 +2765,8 @@
         <v>19</v>
       </c>
       <c r="F14" s="19">
-        <f>COUNTIF(J19:J44,"=TO-DO")</f>
-        <v>2</v>
+        <f>COUNTIF(J19:J47,"=TO-DO")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="22.6" customHeight="1">
@@ -2765,8 +2774,8 @@
         <v>16</v>
       </c>
       <c r="F15" s="21">
-        <f>COUNTIF(J19:J44,"*")</f>
-        <v>26</v>
+        <f>COUNTIF(J19:J47,"*")</f>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
@@ -3013,14 +3022,12 @@
       <c r="I31" s="28"/>
       <c r="J31" t="s" s="27">
         <f>IF(L31="WIP","WIP",IF(K31=L31,"TO-DO","DONE"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s" s="27">
         <v>59</v>
       </c>
-      <c r="L31" t="s" s="34">
-        <v>26</v>
-      </c>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="G32" t="s" s="26">
@@ -3032,14 +3039,12 @@
       <c r="I32" s="31"/>
       <c r="J32" t="s" s="30">
         <f>IF(L32="WIP","WIP",IF(K32=L32,"TO-DO","DONE"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K32" t="s" s="30">
         <v>59</v>
       </c>
-      <c r="L32" t="s" s="35">
-        <v>26</v>
-      </c>
+      <c r="L32" s="34"/>
     </row>
     <row r="33" ht="22.5" customHeight="1">
       <c r="G33" t="s" s="26">
@@ -3050,35 +3055,35 @@
       </c>
       <c r="I33" s="28"/>
       <c r="J33" t="s" s="27">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="K33" t="s" s="27">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="L33" s="29"/>
     </row>
     <row r="34" ht="36.5" customHeight="1">
       <c r="G34" t="s" s="26">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s" s="30">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I34" s="31"/>
       <c r="J34" t="s" s="30">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="K34" t="s" s="30">
-        <v>68</v>
-      </c>
-      <c r="L34" s="36"/>
+        <v>66</v>
+      </c>
+      <c r="L34" s="34"/>
     </row>
     <row r="35" ht="22.5" customHeight="1">
       <c r="G35" t="s" s="26">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s" s="27">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I35" s="28"/>
       <c r="J35" t="s" s="27">
@@ -3092,10 +3097,10 @@
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="G36" t="s" s="26">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s" s="30">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I36" s="31"/>
       <c r="J36" t="s" s="30">
@@ -3105,48 +3110,47 @@
       <c r="K36" t="s" s="30">
         <v>44</v>
       </c>
-      <c r="L36" s="36"/>
+      <c r="L36" s="34"/>
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="G37" t="s" s="26">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s" s="27">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I37" s="28"/>
       <c r="J37" t="s" s="27">
-        <f>IF(L37="WIP","WIP",IF(K37=L37,"TO-DO","DONE"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K37" t="s" s="27">
-        <v>75</v>
-      </c>
-      <c r="L37" t="s" s="34">
+        <v>73</v>
+      </c>
+      <c r="L37" t="s" s="35">
         <v>26</v>
       </c>
     </row>
     <row r="38" ht="36.5" customHeight="1">
       <c r="G38" t="s" s="26">
-        <v>76</v>
-      </c>
-      <c r="H38" s="37"/>
+        <v>74</v>
+      </c>
+      <c r="H38" s="36"/>
       <c r="I38" s="31"/>
       <c r="J38" t="s" s="30">
         <f>IF(L38="WIP","WIP",IF(K38=L38,"TO-DO","DONE"))</f>
         <v>29</v>
       </c>
       <c r="K38" t="s" s="30">
-        <v>77</v>
-      </c>
-      <c r="L38" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="L38" s="34"/>
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="G39" t="s" s="26">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="27">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" t="s" s="27">
@@ -3160,29 +3164,28 @@
     </row>
     <row r="40" ht="22.5" customHeight="1">
       <c r="G40" t="s" s="26">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="30">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I40" s="31"/>
       <c r="J40" t="s" s="30">
-        <f>IF(L40="WIP","WIP",IF(K40=L40,"TO-DO","DONE"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K40" t="s" s="30">
         <v>37</v>
       </c>
-      <c r="L40" t="s" s="35">
+      <c r="L40" t="s" s="37">
         <v>26</v>
       </c>
     </row>
     <row r="41" ht="36.5" customHeight="1">
       <c r="G41" t="s" s="26">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="27">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I41" s="28"/>
       <c r="J41" t="s" s="27">
@@ -3190,18 +3193,18 @@
         <v>26</v>
       </c>
       <c r="K41" t="s" s="27">
-        <v>84</v>
-      </c>
-      <c r="L41" t="s" s="34">
+        <v>82</v>
+      </c>
+      <c r="L41" t="s" s="35">
         <v>26</v>
       </c>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="G42" t="s" s="26">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="30">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I42" s="31"/>
       <c r="J42" t="s" s="30">
@@ -3209,18 +3212,18 @@
         <v>26</v>
       </c>
       <c r="K42" t="s" s="30">
-        <v>84</v>
-      </c>
-      <c r="L42" t="s" s="35">
+        <v>82</v>
+      </c>
+      <c r="L42" t="s" s="37">
         <v>26</v>
       </c>
     </row>
     <row r="43" ht="22.5" customHeight="1">
       <c r="G43" t="s" s="26">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="27">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I43" s="28"/>
       <c r="J43" t="s" s="27">
@@ -3232,22 +3235,67 @@
       </c>
       <c r="L43" s="29"/>
     </row>
-    <row r="44" ht="22.6" customHeight="1">
-      <c r="G44" t="s" s="38">
-        <v>89</v>
-      </c>
-      <c r="H44" t="s" s="39">
-        <v>90</v>
-      </c>
-      <c r="I44" s="40"/>
-      <c r="J44" t="s" s="39">
+    <row r="44" ht="22.5" customHeight="1">
+      <c r="G44" t="s" s="26">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s" s="30">
+        <v>88</v>
+      </c>
+      <c r="I44" s="31"/>
+      <c r="J44" t="s" s="30">
         <f>IF(L44="WIP","WIP",IF(K44=L44,"TO-DO","DONE"))</f>
         <v>29</v>
       </c>
-      <c r="K44" t="s" s="39">
+      <c r="K44" t="s" s="30">
         <v>5</v>
       </c>
-      <c r="L44" s="41"/>
+      <c r="L44" s="34"/>
+    </row>
+    <row r="45" ht="22.5" customHeight="1">
+      <c r="G45" t="s" s="26">
+        <v>89</v>
+      </c>
+      <c r="H45" t="s" s="27">
+        <v>90</v>
+      </c>
+      <c r="I45" s="28"/>
+      <c r="J45" t="s" s="27">
+        <f>IF(L45="WIP","WIP",IF(K45=L45,"TO-DO","DONE"))</f>
+        <v>29</v>
+      </c>
+      <c r="K45" t="s" s="27">
+        <v>82</v>
+      </c>
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" ht="22.5" customHeight="1">
+      <c r="G46" t="s" s="26">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s" s="30">
+        <v>91</v>
+      </c>
+      <c r="I46" s="31"/>
+      <c r="J46" t="s" s="30">
+        <f>IF(L46="WIP","WIP",IF(K46=L46,"TO-DO","DONE"))</f>
+        <v>29</v>
+      </c>
+      <c r="K46" t="s" s="30">
+        <v>5</v>
+      </c>
+      <c r="L46" s="34"/>
+    </row>
+    <row r="47" ht="22.6" customHeight="1">
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="40"/>
+      <c r="J47" t="s" s="41">
+        <f>IF(L47="WIP","WIP",IF(K47=L47,"TO-DO","DONE"))</f>
+        <v>92</v>
+      </c>
+      <c r="K47" s="39"/>
+      <c r="L47" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3255,7 +3303,7 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G17:L17"/>
   </mergeCells>
-  <conditionalFormatting sqref="J18:J44">
+  <conditionalFormatting sqref="J18:J47">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
       <formula>"DONE"</formula>
     </cfRule>

--- a/protocols/Group_Ass.xlsx
+++ b/protocols/Group_Ass.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>Members</t>
   </si>
@@ -289,7 +289,10 @@
     <t>Object Detection subsystem, First Library</t>
   </si>
   <si>
-    <t>TO-DO</t>
+    <t>LightSensor Beacon</t>
+  </si>
+  <si>
+    <t>LightSensor code</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -741,16 +744,13 @@
     <xf numFmtId="49" fontId="4" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -934,7 +934,7 @@
               <c:numCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23.000000</c:v>
+                  <c:v>24.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.000000</c:v>
@@ -1304,13 +1304,13 @@
               <c:numCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26.000000</c:v>
+                  <c:v>28.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.000000</c:v>
+                  <c:v>1.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="D4" s="8">
         <f>COUNTIF(K19:K47,"*LB*")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="F12" s="16">
         <f>COUNTIF(J19:J47,"=DONE")</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="F13" s="18">
         <f>COUNTIF(J19:J47,"=WIP")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F14" s="19">
         <f>COUNTIF(J19:J47,"=TO-DO")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="22.6" customHeight="1">
@@ -3190,14 +3190,12 @@
       <c r="I41" s="28"/>
       <c r="J41" t="s" s="27">
         <f>IF(L41="WIP","WIP",IF(K41=L41,"TO-DO","DONE"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K41" t="s" s="27">
         <v>82</v>
       </c>
-      <c r="L41" t="s" s="35">
-        <v>26</v>
-      </c>
+      <c r="L41" s="29"/>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="G42" t="s" s="26">
@@ -3287,15 +3285,21 @@
       <c r="L46" s="34"/>
     </row>
     <row r="47" ht="22.6" customHeight="1">
-      <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
+      <c r="G47" t="s" s="38">
+        <v>92</v>
+      </c>
+      <c r="H47" t="s" s="39">
+        <v>93</v>
+      </c>
       <c r="I47" s="40"/>
-      <c r="J47" t="s" s="41">
+      <c r="J47" t="s" s="39">
         <f>IF(L47="WIP","WIP",IF(K47=L47,"TO-DO","DONE"))</f>
-        <v>92</v>
-      </c>
-      <c r="K47" s="39"/>
-      <c r="L47" s="42"/>
+        <v>29</v>
+      </c>
+      <c r="K47" t="s" s="39">
+        <v>5</v>
+      </c>
+      <c r="L47" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/protocols/Group_Ass.xlsx
+++ b/protocols/Group_Ass.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>Members</t>
   </si>
@@ -293,6 +293,21 @@
   </si>
   <si>
     <t>LightSensor code</t>
+  </si>
+  <si>
+    <t>Implementation of the libraries</t>
+  </si>
+  <si>
+    <t>Implementation of the libraries in a specific test platform</t>
+  </si>
+  <si>
+    <t>Redesign of the model</t>
+  </si>
+  <si>
+    <t>Test bench creation</t>
+  </si>
+  <si>
+    <t>Implementation on a test bench of the whole system</t>
   </si>
 </sst>
 </file>
@@ -629,7 +644,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -735,9 +750,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -747,13 +759,13 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -934,7 +946,7 @@
               <c:numCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>24.000000</c:v>
+                  <c:v>27.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.000000</c:v>
@@ -1304,7 +1316,7 @@
               <c:numCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>28.000000</c:v>
+                  <c:v>31.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.000000</c:v>
@@ -2631,7 +2643,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:L47"/>
+  <dimension ref="B3:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2676,8 +2688,8 @@
         <v>5</v>
       </c>
       <c r="D4" s="8">
-        <f>COUNTIF(K19:K47,"*LB*")</f>
-        <v>24</v>
+        <f>COUNTIF(K19:K50,"*LB*")</f>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1">
@@ -2688,7 +2700,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="8">
-        <f>COUNTIF(K19:K47,"*GK*")</f>
+        <f>COUNTIF(K19:K50,"*GK*")</f>
         <v>6</v>
       </c>
     </row>
@@ -2700,7 +2712,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="8">
-        <f>COUNTIF(K19:K47,"*WK*")</f>
+        <f>COUNTIF(K19:K50,"*WK*")</f>
         <v>9</v>
       </c>
     </row>
@@ -2712,7 +2724,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8">
-        <f>COUNTIF(K19:K47,"*KT*")</f>
+        <f>COUNTIF(K19:K50,"*KT*")</f>
         <v>7</v>
       </c>
     </row>
@@ -2724,7 +2736,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="11">
-        <f>COUNTIF(K19:K47,"*VJ*")</f>
+        <f>COUNTIF(K19:K50,"*VJ*")</f>
         <v>6</v>
       </c>
     </row>
@@ -2747,8 +2759,8 @@
         <v>17</v>
       </c>
       <c r="F12" s="16">
-        <f>COUNTIF(J19:J47,"=DONE")</f>
-        <v>28</v>
+        <f>COUNTIF(J19:J50,"=DONE")</f>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
@@ -2756,7 +2768,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="18">
-        <f>COUNTIF(J19:J47,"=WIP")</f>
+        <f>COUNTIF(J19:J50,"=WIP")</f>
         <v>1</v>
       </c>
     </row>
@@ -2765,7 +2777,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="19">
-        <f>COUNTIF(J19:J47,"=TO-DO")</f>
+        <f>COUNTIF(J19:J50,"=TO-DO")</f>
         <v>0</v>
       </c>
     </row>
@@ -2774,8 +2786,8 @@
         <v>16</v>
       </c>
       <c r="F15" s="21">
-        <f>COUNTIF(J19:J47,"*")</f>
-        <v>29</v>
+        <f>COUNTIF(J19:J50,"*")</f>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
@@ -3126,15 +3138,13 @@
       <c r="K37" t="s" s="27">
         <v>73</v>
       </c>
-      <c r="L37" t="s" s="35">
-        <v>26</v>
-      </c>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" ht="36.5" customHeight="1">
       <c r="G38" t="s" s="26">
         <v>74</v>
       </c>
-      <c r="H38" s="36"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="31"/>
       <c r="J38" t="s" s="30">
         <f>IF(L38="WIP","WIP",IF(K38=L38,"TO-DO","DONE"))</f>
@@ -3176,9 +3186,7 @@
       <c r="K40" t="s" s="30">
         <v>37</v>
       </c>
-      <c r="L40" t="s" s="37">
-        <v>26</v>
-      </c>
+      <c r="L40" s="34"/>
     </row>
     <row r="41" ht="36.5" customHeight="1">
       <c r="G41" t="s" s="26">
@@ -3212,7 +3220,7 @@
       <c r="K42" t="s" s="30">
         <v>82</v>
       </c>
-      <c r="L42" t="s" s="37">
+      <c r="L42" t="s" s="36">
         <v>26</v>
       </c>
     </row>
@@ -3284,22 +3292,73 @@
       </c>
       <c r="L46" s="34"/>
     </row>
-    <row r="47" ht="22.6" customHeight="1">
-      <c r="G47" t="s" s="38">
+    <row r="47" ht="22.5" customHeight="1">
+      <c r="G47" t="s" s="26">
         <v>92</v>
       </c>
-      <c r="H47" t="s" s="39">
+      <c r="H47" t="s" s="27">
         <v>93</v>
       </c>
-      <c r="I47" s="40"/>
-      <c r="J47" t="s" s="39">
+      <c r="I47" s="28"/>
+      <c r="J47" t="s" s="27">
         <f>IF(L47="WIP","WIP",IF(K47=L47,"TO-DO","DONE"))</f>
         <v>29</v>
       </c>
-      <c r="K47" t="s" s="39">
+      <c r="K47" t="s" s="27">
         <v>5</v>
       </c>
-      <c r="L47" s="41"/>
+      <c r="L47" s="29"/>
+    </row>
+    <row r="48" ht="36.5" customHeight="1">
+      <c r="G48" t="s" s="26">
+        <v>94</v>
+      </c>
+      <c r="H48" t="s" s="30">
+        <v>95</v>
+      </c>
+      <c r="I48" s="31"/>
+      <c r="J48" t="s" s="30">
+        <f>IF(L48="WIP","WIP",IF(K48=L48,"TO-DO","DONE"))</f>
+        <v>29</v>
+      </c>
+      <c r="K48" t="s" s="30">
+        <v>5</v>
+      </c>
+      <c r="L48" s="34"/>
+    </row>
+    <row r="49" ht="22.5" customHeight="1">
+      <c r="G49" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="H49" t="s" s="27">
+        <v>96</v>
+      </c>
+      <c r="I49" s="28"/>
+      <c r="J49" t="s" s="27">
+        <f>IF(L49="WIP","WIP",IF(K49=L49,"TO-DO","DONE"))</f>
+        <v>29</v>
+      </c>
+      <c r="K49" t="s" s="27">
+        <v>5</v>
+      </c>
+      <c r="L49" s="29"/>
+    </row>
+    <row r="50" ht="22.6" customHeight="1">
+      <c r="G50" t="s" s="37">
+        <v>97</v>
+      </c>
+      <c r="H50" t="s" s="38">
+        <v>98</v>
+      </c>
+      <c r="I50" s="39"/>
+      <c r="J50" t="s" s="38">
+        <f>IF(L50="WIP","WIP",IF(K50=L50,"TO-DO","DONE"))</f>
+        <v>29</v>
+      </c>
+      <c r="K50" t="s" s="38">
+        <v>5</v>
+      </c>
+      <c r="L50" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3307,7 +3366,7 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G17:L17"/>
   </mergeCells>
-  <conditionalFormatting sqref="J18:J47">
+  <conditionalFormatting sqref="J18:J50">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
       <formula>"DONE"</formula>
     </cfRule>
